--- a/InputData/endo-learn/BGSaWC/BAU Global Solar and Wind Cap.xlsx
+++ b/InputData/endo-learn/BGSaWC/BAU Global Solar and Wind Cap.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Global Renewables Outlook" sheetId="6" r:id="rId2"/>
+    <sheet name="IEA 2019 outlook" sheetId="5" r:id="rId2"/>
     <sheet name="IEA 2017 Wind" sheetId="2" r:id="rId3"/>
-    <sheet name="BGSaWC" sheetId="4" r:id="rId4"/>
+    <sheet name="IEA 2017 Solar" sheetId="3" r:id="rId4"/>
+    <sheet name="BGSaWC" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>BGSaWC BAU Global Solar and Wind Capacities</t>
   </si>
@@ -59,6 +60,24 @@
     <t>Offshore wind</t>
   </si>
   <si>
+    <t>Global Solar Generation Capacity</t>
+  </si>
+  <si>
+    <t>Solar PV</t>
+  </si>
+  <si>
+    <t>Solar CSP</t>
+  </si>
+  <si>
+    <t>Utility-scale PV</t>
+  </si>
+  <si>
+    <t>Small-scale PV</t>
+  </si>
+  <si>
+    <t>Solar thermal</t>
+  </si>
+  <si>
     <t>International Energy Agency</t>
   </si>
   <si>
@@ -69,6 +88,15 @@
   </si>
   <si>
     <t>Reference Technology Scenario (RTS)</t>
+  </si>
+  <si>
+    <t>Alternate Source (not presently used)</t>
+  </si>
+  <si>
+    <t>Bloomberg New Energy Finance</t>
+  </si>
+  <si>
+    <t>New Energy Outlook 2017 - Data Viewer</t>
   </si>
   <si>
     <t>hard coal</t>
@@ -113,6 +141,18 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>since it comes from a data viewer where it is being compared</t>
+  </si>
+  <si>
+    <t>directly against other electricity sources that are reported</t>
+  </si>
+  <si>
+    <t>We assume solar capacity reported be IEA is already in AC,</t>
+  </si>
+  <si>
+    <t>in AC.  Accordingly, we do not apply a DC-to-AC derate factor.</t>
+  </si>
+  <si>
     <t>crude oil</t>
   </si>
   <si>
@@ -125,55 +165,47 @@
     <t>Global Capacity (MW)</t>
   </si>
   <si>
-    <t>Solar and Wind</t>
+    <t>Data manually extra from website</t>
   </si>
   <si>
-    <t>International Renewable Energy Agency</t>
+    <t>https://www.iea.org/weo2019/</t>
   </si>
   <si>
-    <t>Global Renewables Outlook</t>
+    <t>World Energy Outlook</t>
   </si>
   <si>
-    <t>https://www.irena.org/publications/2020/Apr/Global-Renewables-Outlook-2020</t>
+    <t>Year over year trend in IEA 2017 Data, 2040-2050</t>
   </si>
   <si>
-    <t>Figure S.4</t>
+    <t>Solar Capacity</t>
   </si>
   <si>
-    <t>We assume solar capacity reported be IEA is already in AC.</t>
+    <t>Wind Capacity</t>
   </si>
   <si>
-    <t>Accordingly, we do not apply a DC-to-AC derate factor.</t>
+    <t>Interactive graph: Installed power generation capacity in the Stated Policies Scenario</t>
   </si>
   <si>
-    <t>Because IRENA does not include a breakdown of onshore vs.</t>
+    <t>Solar and Onshore Wind, 2017-2040</t>
   </si>
   <si>
-    <t>offshore wind, we take the breakdown from</t>
+    <t>Year over year growth for solar and onshore wind, 2040-2050; Offshore wind</t>
   </si>
   <si>
-    <t>Share of offshore</t>
-  </si>
-  <si>
-    <t>Wind (GW)</t>
-  </si>
-  <si>
-    <t>Solar (GW)</t>
-  </si>
-  <si>
-    <t>Share of Offshore wind</t>
+    <t>Onshore Wind</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0;\-#,##0;_(* &quot; - &quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +270,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -291,7 +336,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -314,11 +359,16 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -326,9 +376,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -336,7 +395,35 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Table Header 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9F9F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9F9F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -365,49 +452,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>303408</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>151590</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190499" y="1819275"/>
-          <a:ext cx="11123809" cy="6476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -862,6 +906,501 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7934324" cy="1485900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D99FB29C-F7C7-400F-AF8B-B4121BCDFBD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7934324" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Source</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> - IEA,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 2017.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1"/>
+            <a:t>Energy Technology Perspectives 2017 --</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Catalysing Energy Technology Transformations</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>."</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>https://www.iea.org/etp2017/.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Notes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - Data is for the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> IEA's Reference Technology Scenario (RTS). </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Cells highlighted</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> blue are values taken directly from the publication. All other values are linearly interpolated.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Data only</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> includes grid-connected solar capacity.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7934324" cy="895350"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1FD01F-31B6-407E-975D-A1634636394D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3190875"/>
+          <a:ext cx="7934324" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>Table 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Source</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> - Bloomberg New Energy Finance, 2017. "New Energy Outlook</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 2017 - Data Viewer"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Notes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> - This data source is behind a paywall. NEO only takes into account currently</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> adopted policies. It does not include pledges/commitments unless they are backed by policies/regulations.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1125,107 +1664,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="11">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B8" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="12">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B10" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B12" s="11">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B14" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1240,420 +1799,797 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W7" sqref="W7:AG7"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="B1">
+    <row r="1" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B2" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D2" s="5">
         <v>2019</v>
       </c>
-      <c r="C1">
+      <c r="E2" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2021</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2022</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2023</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2024</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2025</v>
+      </c>
+      <c r="K2" s="5">
+        <v>2026</v>
+      </c>
+      <c r="L2" s="5">
+        <v>2027</v>
+      </c>
+      <c r="M2" s="5">
+        <v>2028</v>
+      </c>
+      <c r="N2" s="5">
+        <v>2029</v>
+      </c>
+      <c r="O2" s="5">
         <v>2030</v>
       </c>
-      <c r="D1">
+      <c r="P2" s="5">
+        <v>2031</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>2032</v>
+      </c>
+      <c r="R2" s="5">
+        <v>2033</v>
+      </c>
+      <c r="S2" s="5">
+        <v>2034</v>
+      </c>
+      <c r="T2" s="5">
+        <v>2035</v>
+      </c>
+      <c r="U2" s="5">
+        <v>2036</v>
+      </c>
+      <c r="V2" s="5">
+        <v>2037</v>
+      </c>
+      <c r="W2" s="5">
+        <v>2038</v>
+      </c>
+      <c r="X2" s="5">
+        <v>2039</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>2040</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>2041</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>2042</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>2043</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>2044</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>2045</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>2046</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>2047</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>2048</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>2049</v>
+      </c>
+      <c r="AI2" s="5">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2">
-        <v>582</v>
-      </c>
-      <c r="C2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>399</v>
+      </c>
+      <c r="C3">
+        <v>495</v>
+      </c>
+      <c r="D3">
+        <v>607</v>
+      </c>
+      <c r="E3">
+        <v>715</v>
+      </c>
+      <c r="F3">
+        <v>825</v>
+      </c>
+      <c r="G3">
+        <v>943</v>
+      </c>
+      <c r="H3">
+        <v>1070</v>
+      </c>
+      <c r="I3">
+        <v>1202</v>
+      </c>
+      <c r="J3">
+        <v>1309</v>
+      </c>
+      <c r="K3">
+        <v>1415</v>
+      </c>
+      <c r="L3">
+        <v>1522</v>
+      </c>
+      <c r="M3">
+        <v>1631</v>
+      </c>
+      <c r="N3">
+        <v>1746</v>
+      </c>
+      <c r="O3">
+        <v>1866</v>
+      </c>
+      <c r="P3">
+        <v>1985</v>
+      </c>
+      <c r="Q3">
+        <v>2104</v>
+      </c>
+      <c r="R3">
+        <v>2225</v>
+      </c>
+      <c r="S3">
+        <v>2349</v>
+      </c>
+      <c r="T3">
+        <v>2476</v>
+      </c>
+      <c r="U3">
+        <v>2606</v>
+      </c>
+      <c r="V3">
+        <v>2738</v>
+      </c>
+      <c r="W3">
+        <v>2872</v>
+      </c>
+      <c r="X3">
+        <v>3007</v>
+      </c>
+      <c r="Y3">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4">
+        <f>'IEA 2017 Solar'!AE12/'IEA 2017 Solar'!$AD$12</f>
+        <v>1.0413981483651269</v>
+      </c>
+      <c r="AA4">
+        <f>'IEA 2017 Solar'!AF12/'IEA 2017 Solar'!$AD$12</f>
+        <v>1.0827962967302536</v>
+      </c>
+      <c r="AB4">
+        <f>'IEA 2017 Solar'!AG12/'IEA 2017 Solar'!$AD$12</f>
+        <v>1.1241944450953805</v>
+      </c>
+      <c r="AC4">
+        <f>'IEA 2017 Solar'!AH12/'IEA 2017 Solar'!$AD$12</f>
+        <v>1.1655925934605074</v>
+      </c>
+      <c r="AD4">
+        <f>'IEA 2017 Solar'!AI12/'IEA 2017 Solar'!$AD$12</f>
+        <v>1.2069907418256338</v>
+      </c>
+      <c r="AE4">
+        <f>'IEA 2017 Solar'!AJ12/'IEA 2017 Solar'!$AD$12</f>
+        <v>1.2512680731867143</v>
+      </c>
+      <c r="AF4">
+        <f>'IEA 2017 Solar'!AK12/'IEA 2017 Solar'!$AD$12</f>
+        <v>1.2955454045477948</v>
+      </c>
+      <c r="AG4">
+        <f>'IEA 2017 Solar'!AL12/'IEA 2017 Solar'!$AD$12</f>
+        <v>1.3398227359088752</v>
+      </c>
+      <c r="AH4">
+        <f>'IEA 2017 Solar'!AM12/'IEA 2017 Solar'!$AD$12</f>
+        <v>1.3841000672699557</v>
+      </c>
+      <c r="AI4">
+        <f>'IEA 2017 Solar'!AN12/'IEA 2017 Solar'!$AD$12</f>
+        <v>1.4283773986310362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="19">
+        <f>B3</f>
+        <v>399</v>
+      </c>
+      <c r="C5" s="19">
+        <f>C3</f>
+        <v>495</v>
+      </c>
+      <c r="D5" s="19">
+        <f>D3</f>
+        <v>607</v>
+      </c>
+      <c r="E5" s="19">
+        <f>E3</f>
+        <v>715</v>
+      </c>
+      <c r="F5" s="19">
+        <f>F3</f>
+        <v>825</v>
+      </c>
+      <c r="G5" s="19">
+        <f>G3</f>
+        <v>943</v>
+      </c>
+      <c r="H5" s="19">
+        <f>H3</f>
+        <v>1070</v>
+      </c>
+      <c r="I5" s="19">
+        <f>I3</f>
+        <v>1202</v>
+      </c>
+      <c r="J5" s="19">
+        <f>J3</f>
+        <v>1309</v>
+      </c>
+      <c r="K5" s="19">
+        <f>K3</f>
+        <v>1415</v>
+      </c>
+      <c r="L5" s="19">
+        <f>L3</f>
+        <v>1522</v>
+      </c>
+      <c r="M5" s="19">
+        <f>M3</f>
+        <v>1631</v>
+      </c>
+      <c r="N5" s="19">
+        <f>N3</f>
+        <v>1746</v>
+      </c>
+      <c r="O5" s="19">
+        <f>O3</f>
+        <v>1866</v>
+      </c>
+      <c r="P5" s="19">
+        <f>P3</f>
+        <v>1985</v>
+      </c>
+      <c r="Q5" s="19">
+        <f>Q3</f>
+        <v>2104</v>
+      </c>
+      <c r="R5" s="19">
+        <f>R3</f>
+        <v>2225</v>
+      </c>
+      <c r="S5" s="19">
+        <f>S3</f>
+        <v>2349</v>
+      </c>
+      <c r="T5" s="19">
+        <f>T3</f>
+        <v>2476</v>
+      </c>
+      <c r="U5" s="19">
+        <f>U3</f>
+        <v>2606</v>
+      </c>
+      <c r="V5" s="19">
+        <f>V3</f>
+        <v>2738</v>
+      </c>
+      <c r="W5" s="19">
+        <f>W3</f>
+        <v>2872</v>
+      </c>
+      <c r="X5" s="19">
+        <f>X3</f>
+        <v>3007</v>
+      </c>
+      <c r="Y5" s="19">
+        <f>Y3</f>
+        <v>3142</v>
+      </c>
+      <c r="Z5" s="19">
+        <f>$Y$5*Z4</f>
+        <v>3272.0729821632285</v>
+      </c>
+      <c r="AA5" s="19">
+        <f>$Y$5*AA4</f>
+        <v>3402.1459643264566</v>
+      </c>
+      <c r="AB5" s="19">
+        <f>$Y$5*AB4</f>
+        <v>3532.2189464896855</v>
+      </c>
+      <c r="AC5" s="19">
+        <f>$Y$5*AC4</f>
+        <v>3662.2919286529141</v>
+      </c>
+      <c r="AD5" s="19">
+        <f>$Y$5*AD4</f>
+        <v>3792.3649108161417</v>
+      </c>
+      <c r="AE5" s="19">
+        <f>$Y$5*AE4</f>
+        <v>3931.4842859526561</v>
+      </c>
+      <c r="AF5" s="19">
+        <f>$Y$5*AF4</f>
+        <v>4070.6036610891711</v>
+      </c>
+      <c r="AG5" s="19">
+        <f>$Y$5*AG4</f>
+        <v>4209.723036225686</v>
+      </c>
+      <c r="AH5" s="19">
+        <f>$Y$5*AH4</f>
+        <v>4348.8424113622004</v>
+      </c>
+      <c r="AI5" s="19">
+        <f>$Y$5*AI4</f>
+        <v>4487.9617864987158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2021</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2022</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2023</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2024</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2025</v>
+      </c>
+      <c r="K8" s="5">
+        <v>2026</v>
+      </c>
+      <c r="L8" s="5">
+        <v>2027</v>
+      </c>
+      <c r="M8" s="5">
+        <v>2028</v>
+      </c>
+      <c r="N8" s="5">
+        <v>2029</v>
+      </c>
+      <c r="O8" s="5">
+        <v>2030</v>
+      </c>
+      <c r="P8" s="5">
+        <v>2031</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>2032</v>
+      </c>
+      <c r="R8" s="5">
+        <v>2033</v>
+      </c>
+      <c r="S8" s="5">
+        <v>2034</v>
+      </c>
+      <c r="T8" s="5">
+        <v>2035</v>
+      </c>
+      <c r="U8" s="5">
+        <v>2036</v>
+      </c>
+      <c r="V8" s="5">
         <v>2037</v>
       </c>
-      <c r="D2">
-        <v>4474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3">
+      <c r="W8" s="5">
+        <v>2038</v>
+      </c>
+      <c r="X8" s="5">
+        <v>2039</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>2040</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>2041</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>2042</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>2043</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>2044</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>2045</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>2046</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>2047</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>2048</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>2049</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>515</v>
+      </c>
+      <c r="C9">
+        <v>566</v>
+      </c>
+      <c r="D9">
         <v>624</v>
       </c>
-      <c r="C3">
-        <v>1455</v>
-      </c>
-      <c r="D3">
-        <v>2434</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>2019</v>
-      </c>
-      <c r="C5">
-        <v>2020</v>
-      </c>
-      <c r="D5">
-        <v>2021</v>
-      </c>
-      <c r="E5">
-        <v>2022</v>
-      </c>
-      <c r="F5">
-        <v>2023</v>
-      </c>
-      <c r="G5">
-        <v>2024</v>
-      </c>
-      <c r="H5">
-        <v>2025</v>
-      </c>
-      <c r="I5">
-        <v>2026</v>
-      </c>
-      <c r="J5">
-        <v>2027</v>
-      </c>
-      <c r="K5">
-        <v>2028</v>
-      </c>
-      <c r="L5">
-        <v>2029</v>
-      </c>
-      <c r="M5">
-        <v>2030</v>
-      </c>
-      <c r="N5">
-        <v>2031</v>
-      </c>
-      <c r="O5">
-        <v>2032</v>
-      </c>
-      <c r="P5">
-        <v>2033</v>
-      </c>
-      <c r="Q5">
-        <v>2034</v>
-      </c>
-      <c r="R5">
-        <v>2035</v>
-      </c>
-      <c r="S5">
-        <v>2036</v>
-      </c>
-      <c r="T5">
-        <v>2037</v>
-      </c>
-      <c r="U5">
-        <v>2038</v>
-      </c>
-      <c r="V5">
-        <v>2039</v>
-      </c>
-      <c r="W5">
-        <v>2040</v>
-      </c>
-      <c r="X5">
-        <v>2041</v>
-      </c>
-      <c r="Y5">
-        <v>2042</v>
-      </c>
-      <c r="Z5">
-        <v>2043</v>
-      </c>
-      <c r="AA5">
-        <v>2044</v>
-      </c>
-      <c r="AB5">
-        <v>2045</v>
-      </c>
-      <c r="AC5">
-        <v>2046</v>
-      </c>
-      <c r="AD5">
-        <v>2047</v>
-      </c>
-      <c r="AE5">
-        <v>2048</v>
-      </c>
-      <c r="AF5">
-        <v>2049</v>
-      </c>
-      <c r="AG5">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6">
-        <f>TREND($B$2:$C$2,$B$1:$C$1,B5)*1000</f>
-        <v>582000</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:N6" si="0">TREND($B$2:$C$2,$B$1:$C$1,C5)*1000</f>
-        <v>714272.72727276431</v>
-      </c>
-      <c r="D6">
+      <c r="E9">
+        <v>688</v>
+      </c>
+      <c r="F9">
+        <v>747</v>
+      </c>
+      <c r="G9">
+        <v>804</v>
+      </c>
+      <c r="H9">
+        <v>861</v>
+      </c>
+      <c r="I9">
+        <v>921</v>
+      </c>
+      <c r="J9">
+        <v>980</v>
+      </c>
+      <c r="K9">
+        <v>1040</v>
+      </c>
+      <c r="L9">
+        <v>1100</v>
+      </c>
+      <c r="M9">
+        <v>1162</v>
+      </c>
+      <c r="N9">
+        <v>1224</v>
+      </c>
+      <c r="O9">
+        <v>1288</v>
+      </c>
+      <c r="P9">
+        <v>1352</v>
+      </c>
+      <c r="Q9">
+        <v>1415</v>
+      </c>
+      <c r="R9">
+        <v>1476</v>
+      </c>
+      <c r="S9">
+        <v>1536</v>
+      </c>
+      <c r="T9">
+        <v>1594</v>
+      </c>
+      <c r="U9">
+        <v>1649</v>
+      </c>
+      <c r="V9">
+        <v>1703</v>
+      </c>
+      <c r="W9">
+        <v>1754</v>
+      </c>
+      <c r="X9">
+        <v>1806</v>
+      </c>
+      <c r="Y9">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z10">
+        <f>'IEA 2017 Wind'!AE9/'IEA 2017 Wind'!$AD$9</f>
+        <v>1.0207393875977682</v>
+      </c>
+      <c r="AA10">
+        <f>'IEA 2017 Wind'!AF9/'IEA 2017 Wind'!$AD$9</f>
+        <v>1.0414787751955361</v>
+      </c>
+      <c r="AB10">
+        <f>'IEA 2017 Wind'!AG9/'IEA 2017 Wind'!$AD$9</f>
+        <v>1.0622181627933043</v>
+      </c>
+      <c r="AC10">
+        <f>'IEA 2017 Wind'!AH9/'IEA 2017 Wind'!$AD$9</f>
+        <v>1.0829575503910722</v>
+      </c>
+      <c r="AD10">
+        <f>'IEA 2017 Wind'!AI9/'IEA 2017 Wind'!$AD$9</f>
+        <v>1.1036969379888402</v>
+      </c>
+      <c r="AE10">
+        <f>'IEA 2017 Wind'!AJ9/'IEA 2017 Wind'!$AD$9</f>
+        <v>1.135431778422568</v>
+      </c>
+      <c r="AF10">
+        <f>'IEA 2017 Wind'!AK9/'IEA 2017 Wind'!$AD$9</f>
+        <v>1.1671666188562957</v>
+      </c>
+      <c r="AG10">
+        <f>'IEA 2017 Wind'!AL9/'IEA 2017 Wind'!$AD$9</f>
+        <v>1.1989014592900236</v>
+      </c>
+      <c r="AH10">
+        <f>'IEA 2017 Wind'!AM9/'IEA 2017 Wind'!$AD$9</f>
+        <v>1.2306362997237512</v>
+      </c>
+      <c r="AI10">
+        <f>'IEA 2017 Wind'!AN9/'IEA 2017 Wind'!$AD$9</f>
+        <v>1.2623711401574789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:X11" si="0">B9</f>
+        <v>515</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="0"/>
-        <v>846545.45454547042</v>
-      </c>
-      <c r="E6">
+        <v>566</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
-        <v>978818.18181823473</v>
-      </c>
-      <c r="F6">
+        <v>624</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>1111090.9090909408</v>
-      </c>
-      <c r="G6">
+        <v>688</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>1243363.6363636469</v>
-      </c>
-      <c r="H6">
+        <v>747</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="0"/>
-        <v>1375636.3636364113</v>
-      </c>
-      <c r="I6">
+        <v>804</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
-        <v>1507909.0909091174</v>
-      </c>
-      <c r="J6">
+        <v>861</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="0"/>
-        <v>1640181.8181818235</v>
-      </c>
-      <c r="K6">
+        <v>921</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="0"/>
-        <v>1772454.5454545878</v>
-      </c>
-      <c r="L6">
+        <v>980</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="0"/>
-        <v>1904727.2727272939</v>
-      </c>
-      <c r="M6">
+        <v>1040</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="0"/>
-        <v>2037000</v>
-      </c>
-      <c r="N6">
-        <f>TREND($C$2:$D$2,$C$1:$D$1,N5)*1000</f>
-        <v>2158849.9999999767</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ref="O6:AG6" si="1">TREND($C$2:$D$2,$C$1:$D$1,O5)*1000</f>
-        <v>2280699.9999999823</v>
-      </c>
-      <c r="P6">
+        <v>1100</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>1162</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>1224</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>1288</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>1352</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>1415</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>1476</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>1536</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>1594</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>1649</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>1703</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>1754</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>1806</v>
+      </c>
+      <c r="Y11">
+        <f>Y9</f>
+        <v>1856</v>
+      </c>
+      <c r="Z11">
+        <f>$Y$9*Z10</f>
+        <v>1894.4923033814578</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" ref="AA11:AI11" si="1">$Y$9*AA10</f>
+        <v>1932.9846067629151</v>
+      </c>
+      <c r="AB11">
         <f t="shared" si="1"/>
-        <v>2402549.9999999884</v>
-      </c>
-      <c r="Q6">
+        <v>1971.4769101443728</v>
+      </c>
+      <c r="AC11">
         <f t="shared" si="1"/>
-        <v>2524399.9999999944</v>
-      </c>
-      <c r="R6">
+        <v>2009.9692135258301</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="1"/>
-        <v>2646250</v>
-      </c>
-      <c r="S6">
+        <v>2048.4615169072872</v>
+      </c>
+      <c r="AE11">
         <f t="shared" si="1"/>
-        <v>2768099.9999999767</v>
-      </c>
-      <c r="T6">
+        <v>2107.3613807522861</v>
+      </c>
+      <c r="AF11">
         <f t="shared" si="1"/>
-        <v>2889949.9999999823</v>
-      </c>
-      <c r="U6">
+        <v>2166.261244597285</v>
+      </c>
+      <c r="AG11">
         <f t="shared" si="1"/>
-        <v>3011799.9999999884</v>
-      </c>
-      <c r="V6">
+        <v>2225.1611084422839</v>
+      </c>
+      <c r="AH11">
         <f t="shared" si="1"/>
-        <v>3133649.9999999944</v>
-      </c>
-      <c r="W6">
+        <v>2284.0609722872823</v>
+      </c>
+      <c r="AI11">
         <f t="shared" si="1"/>
-        <v>3255500</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="1"/>
-        <v>3377349.9999999767</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="1"/>
-        <v>3499199.9999999823</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="1"/>
-        <v>3621049.9999999884</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="1"/>
-        <v>3742899.9999999944</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="1"/>
-        <v>3864750</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="1"/>
-        <v>3986599.9999999767</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="1"/>
-        <v>4108449.9999999823</v>
-      </c>
-      <c r="AE6">
-        <f t="shared" si="1"/>
-        <v>4230299.9999999888</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" si="1"/>
-        <v>4352149.9999999944</v>
-      </c>
-      <c r="AG6">
-        <f t="shared" si="1"/>
-        <v>4474000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7">
-        <f>TREND($B$3:$C$3,$B$1:$C$1,B5)*1000</f>
-        <v>624000</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ref="C7:N7" si="2">TREND($B$3:$C$3,$B$1:$C$1,C5)*1000</f>
-        <v>699545.45454544132</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="2"/>
-        <v>775090.90909091174</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>850636.36363635305</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>926181.81818182347</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>1001727.2727272648</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>1077272.7272727352</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
-        <v>1152818.1818181765</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
-        <v>1228363.6363636178</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
-        <v>1303909.0909090883</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>1379454.5454545296</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="2"/>
-        <v>1455000</v>
-      </c>
-      <c r="N7">
-        <f>TREND($C$3:$D$3,$C$1:$D$1,N5)*1000</f>
-        <v>1503950.0000000116</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ref="O7:AG7" si="3">TREND($C$3:$D$3,$C$1:$D$1,O5)*1000</f>
-        <v>1552900.0000000088</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="3"/>
-        <v>1601850.0000000058</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>1650800.0000000028</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="3"/>
-        <v>1699750</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="3"/>
-        <v>1748700.0000000116</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="3"/>
-        <v>1797650.0000000088</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="3"/>
-        <v>1846600.0000000058</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="3"/>
-        <v>1895550.0000000028</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="3"/>
-        <v>1944500</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="3"/>
-        <v>1993450.0000000116</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="3"/>
-        <v>2042400.0000000088</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="3"/>
-        <v>2091350.0000000058</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="3"/>
-        <v>2140300.0000000028</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="3"/>
-        <v>2189250</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="3"/>
-        <v>2238200.0000000116</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="3"/>
-        <v>2287150.0000000088</v>
-      </c>
-      <c r="AE7">
-        <f t="shared" si="3"/>
-        <v>2336100.0000000056</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="3"/>
-        <v>2385050.0000000028</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="3"/>
-        <v>2434000</v>
+        <v>2342.9608361322807</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1662,22 +2598,22 @@
   <dimension ref="A7:AN22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:AN12"/>
+      <selection activeCell="AN10" sqref="AN10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="38" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="38" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:40" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,7 +2735,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -1945,7 +2881,7 @@
         <v>2072.8400198583167</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -2091,165 +3027,12 @@
         <v>135.57703324231764</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12">
-        <f>D10/D9</f>
-        <v>2.5713182457597083E-2</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ref="E12:AN12" si="6">E10/E9</f>
-        <v>2.578871171314356E-2</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="6"/>
-        <v>2.5845655145625791E-2</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="6"/>
-        <v>2.5890121408551566E-2</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="6"/>
-        <v>2.5925806484580767E-2</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="6"/>
-        <v>2.5955077776644173E-2</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="6"/>
-        <v>2.5979521857504594E-2</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="6"/>
-        <v>2.6000241869497124E-2</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="6"/>
-        <v>2.6018028618606089E-2</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="6"/>
-        <v>2.6033463808267359E-2</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="6"/>
-        <v>2.6046984866833829E-2</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="6"/>
-        <v>2.6058927065243025E-2</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="6"/>
-        <v>2.7407073239684544E-2</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="6"/>
-        <v>2.8620361485140852E-2</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="6"/>
-        <v>2.9718063114568045E-2</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="6"/>
-        <v>3.0715944542522976E-2</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="6"/>
-        <v>3.1627029432445213E-2</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="6"/>
-        <v>3.2977148047105123E-2</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="6"/>
-        <v>3.4228633389750088E-2</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="6"/>
-        <v>3.5391913083605696E-2</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="6"/>
-        <v>3.6475994894422221E-2</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="6"/>
-        <v>3.7488700440058781E-2</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="6"/>
-        <v>3.9173241830407858E-2</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="6"/>
-        <v>4.0776426658320569E-2</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="6"/>
-        <v>4.2304009747684453E-2</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="6"/>
-        <v>4.3761215662200516E-2</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="6"/>
-        <v>4.5152798404145433E-2</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="6"/>
-        <v>4.7293189315199817E-2</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="6"/>
-        <v>4.9348335288436317E-2</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" si="6"/>
-        <v>5.1323229444481394E-2</v>
-      </c>
-      <c r="AH12">
-        <f t="shared" si="6"/>
-        <v>5.3222482417080282E-2</v>
-      </c>
-      <c r="AI12">
-        <f t="shared" si="6"/>
-        <v>5.5050358289337263E-2</v>
-      </c>
-      <c r="AJ12">
-        <f t="shared" si="6"/>
-        <v>5.7353127431225691E-2</v>
-      </c>
-      <c r="AK12">
-        <f t="shared" si="6"/>
-        <v>5.9530673644197334E-2</v>
-      </c>
-      <c r="AL12">
-        <f t="shared" si="6"/>
-        <v>6.1592940855595912E-2</v>
-      </c>
-      <c r="AM12">
-        <f t="shared" si="6"/>
-        <v>6.3548847282902332E-2</v>
-      </c>
-      <c r="AN12">
-        <f t="shared" si="6"/>
-        <v>6.5406414360711082E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -2341,7 +3124,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>8</v>
       </c>
@@ -2433,7 +3216,7 @@
         <v>1977.5444351764106</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>9</v>
       </c>
@@ -2527,12 +3310,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:AD22">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:AD22">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2543,997 +3326,1889 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A9:AN25"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2012</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2013</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2014</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2015</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2016</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2017</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2018</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2019</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2020</v>
+      </c>
+      <c r="K11" s="5">
+        <v>2021</v>
+      </c>
+      <c r="L11" s="5">
+        <v>2022</v>
+      </c>
+      <c r="M11" s="5">
+        <v>2023</v>
+      </c>
+      <c r="N11" s="5">
+        <v>2024</v>
+      </c>
+      <c r="O11" s="5">
+        <v>2025</v>
+      </c>
+      <c r="P11" s="5">
+        <v>2026</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>2027</v>
+      </c>
+      <c r="R11" s="5">
+        <v>2028</v>
+      </c>
+      <c r="S11" s="5">
+        <v>2029</v>
+      </c>
+      <c r="T11" s="5">
+        <v>2030</v>
+      </c>
+      <c r="U11" s="5">
+        <v>2031</v>
+      </c>
+      <c r="V11" s="5">
+        <v>2032</v>
+      </c>
+      <c r="W11" s="5">
+        <v>2033</v>
+      </c>
+      <c r="X11" s="5">
+        <v>2034</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>2035</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>2036</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>2037</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>2038</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>2039</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>2040</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>2041</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>2042</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>2043</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>2044</v>
+      </c>
+      <c r="AI11" s="5">
+        <v>2045</v>
+      </c>
+      <c r="AJ11" s="5">
+        <v>2046</v>
+      </c>
+      <c r="AK11" s="5">
+        <v>2047</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>2048</v>
+      </c>
+      <c r="AM11" s="5">
+        <v>2049</v>
+      </c>
+      <c r="AN11" s="5">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7">
+        <v>177.99678700200658</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" ref="E12:N13" si="0">D12+($O12-$D12)/11</f>
+        <v>231.28002108149144</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>284.56325516097627</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="0"/>
+        <v>337.8464892404611</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="0"/>
+        <v>391.12972331994592</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="0"/>
+        <v>444.41295739943075</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="0"/>
+        <v>497.69619147891558</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="0"/>
+        <v>550.97942555840041</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="0"/>
+        <v>604.26265963788524</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="0"/>
+        <v>657.54589371737006</v>
+      </c>
+      <c r="N12" s="8">
+        <f t="shared" si="0"/>
+        <v>710.82912779685489</v>
+      </c>
+      <c r="O12" s="7">
+        <v>764.11236187633995</v>
+      </c>
+      <c r="P12" s="8">
+        <f t="shared" ref="P12:S13" si="1">O12+($T12-$O12)/5</f>
+        <v>824.37350851332224</v>
+      </c>
+      <c r="Q12" s="8">
+        <f t="shared" si="1"/>
+        <v>884.63465515030452</v>
+      </c>
+      <c r="R12" s="8">
+        <f t="shared" si="1"/>
+        <v>944.89580178728681</v>
+      </c>
+      <c r="S12" s="8">
+        <f t="shared" si="1"/>
+        <v>1005.1569484242691</v>
+      </c>
+      <c r="T12" s="7">
+        <v>1065.4180950612515</v>
+      </c>
+      <c r="U12" s="8">
+        <f t="shared" ref="U12:X13" si="2">T12+($Y12-$T12)/5</f>
+        <v>1121.9798241718929</v>
+      </c>
+      <c r="V12" s="8">
+        <f t="shared" si="2"/>
+        <v>1178.5415532825343</v>
+      </c>
+      <c r="W12" s="8">
+        <f t="shared" si="2"/>
+        <v>1235.1032823931757</v>
+      </c>
+      <c r="X12" s="8">
+        <f t="shared" si="2"/>
+        <v>1291.6650115038171</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>1348.226740614459</v>
+      </c>
+      <c r="Z12" s="8">
+        <f t="shared" ref="Z12:AC13" si="3">Y12+($AD12-$Y12)/5</f>
+        <v>1414.1235129586289</v>
+      </c>
+      <c r="AA12" s="8">
+        <f t="shared" si="3"/>
+        <v>1480.0202853027988</v>
+      </c>
+      <c r="AB12" s="8">
+        <f t="shared" si="3"/>
+        <v>1545.9170576469687</v>
+      </c>
+      <c r="AC12" s="8">
+        <f t="shared" si="3"/>
+        <v>1611.8138299911386</v>
+      </c>
+      <c r="AD12" s="7">
+        <v>1677.710602335309</v>
+      </c>
+      <c r="AE12" s="8">
+        <f t="shared" ref="AE12:AH13" si="4">AD12+($AI12-$AD12)/5</f>
+        <v>1747.1647147645324</v>
+      </c>
+      <c r="AF12" s="8">
+        <f t="shared" si="4"/>
+        <v>1816.6188271937558</v>
+      </c>
+      <c r="AG12" s="8">
+        <f t="shared" si="4"/>
+        <v>1886.0729396229792</v>
+      </c>
+      <c r="AH12" s="8">
+        <f t="shared" si="4"/>
+        <v>1955.5270520522026</v>
+      </c>
+      <c r="AI12" s="7">
+        <v>2024.9811644814256</v>
+      </c>
+      <c r="AJ12" s="8">
+        <f t="shared" ref="AJ12:AM13" si="5">AI12+($AN12-$AI12)/5</f>
+        <v>2099.2657127490238</v>
+      </c>
+      <c r="AK12" s="8">
+        <f t="shared" si="5"/>
+        <v>2173.5502610166222</v>
+      </c>
+      <c r="AL12" s="8">
+        <f t="shared" si="5"/>
+        <v>2247.8348092842207</v>
+      </c>
+      <c r="AM12" s="8">
+        <f t="shared" si="5"/>
+        <v>2322.1193575518191</v>
+      </c>
+      <c r="AN12" s="7">
+        <v>2396.4039058194176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7">
+        <v>7.4322450585597988</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>8.6294683471704676</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>9.8266916357811365</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="0"/>
+        <v>11.023914924391805</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="0"/>
+        <v>12.221138213002474</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="0"/>
+        <v>13.418361501613143</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="0"/>
+        <v>14.615584790223812</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="0"/>
+        <v>15.812808078834481</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="0"/>
+        <v>17.010031367445148</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="0"/>
+        <v>18.207254656055817</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="0"/>
+        <v>19.404477944666485</v>
+      </c>
+      <c r="O13" s="7">
+        <v>20.601701233277154</v>
+      </c>
+      <c r="P13" s="8">
+        <f t="shared" si="1"/>
+        <v>25.814645123717206</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="1"/>
+        <v>31.027589014157257</v>
+      </c>
+      <c r="R13" s="8">
+        <f t="shared" si="1"/>
+        <v>36.240532904597309</v>
+      </c>
+      <c r="S13" s="8">
+        <f t="shared" si="1"/>
+        <v>41.453476795037361</v>
+      </c>
+      <c r="T13" s="7">
+        <v>46.666420685477419</v>
+      </c>
+      <c r="U13" s="8">
+        <f t="shared" si="2"/>
+        <v>53.533322562518883</v>
+      </c>
+      <c r="V13" s="8">
+        <f t="shared" si="2"/>
+        <v>60.400224439560347</v>
+      </c>
+      <c r="W13" s="8">
+        <f t="shared" si="2"/>
+        <v>67.267126316601818</v>
+      </c>
+      <c r="X13" s="8">
+        <f t="shared" si="2"/>
+        <v>74.134028193643289</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>81.000930070684745</v>
+      </c>
+      <c r="Z13" s="8">
+        <f t="shared" si="3"/>
+        <v>88.76927726023672</v>
+      </c>
+      <c r="AA13" s="8">
+        <f t="shared" si="3"/>
+        <v>96.537624449788694</v>
+      </c>
+      <c r="AB13" s="8">
+        <f t="shared" si="3"/>
+        <v>104.30597163934067</v>
+      </c>
+      <c r="AC13" s="8">
+        <f t="shared" si="3"/>
+        <v>112.07431882889264</v>
+      </c>
+      <c r="AD13" s="7">
+        <v>119.84266601844459</v>
+      </c>
+      <c r="AE13" s="8">
+        <f t="shared" si="4"/>
+        <v>128.19643216705825</v>
+      </c>
+      <c r="AF13" s="8">
+        <f t="shared" si="4"/>
+        <v>136.55019831567191</v>
+      </c>
+      <c r="AG13" s="8">
+        <f t="shared" si="4"/>
+        <v>144.90396446428556</v>
+      </c>
+      <c r="AH13" s="8">
+        <f t="shared" si="4"/>
+        <v>153.25773061289922</v>
+      </c>
+      <c r="AI13" s="7">
+        <v>161.61149676151288</v>
+      </c>
+      <c r="AJ13" s="8">
+        <f t="shared" si="5"/>
+        <v>172.69170175423355</v>
+      </c>
+      <c r="AK13" s="8">
+        <f t="shared" si="5"/>
+        <v>183.77190674695422</v>
+      </c>
+      <c r="AL13" s="8">
+        <f t="shared" si="5"/>
+        <v>194.85211173967488</v>
+      </c>
+      <c r="AM13" s="8">
+        <f t="shared" si="5"/>
+        <v>205.93231673239555</v>
+      </c>
+      <c r="AN13" s="7">
+        <v>217.01252172511622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2012</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2013</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2014</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2015</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2016</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2017</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2018</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2019</v>
+      </c>
+      <c r="J22" s="4">
+        <v>2020</v>
+      </c>
+      <c r="K22" s="4">
+        <v>2021</v>
+      </c>
+      <c r="L22" s="4">
+        <v>2022</v>
+      </c>
+      <c r="M22" s="4">
+        <v>2023</v>
+      </c>
+      <c r="N22" s="4">
+        <v>2024</v>
+      </c>
+      <c r="O22" s="4">
+        <v>2025</v>
+      </c>
+      <c r="P22" s="4">
+        <v>2026</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>2027</v>
+      </c>
+      <c r="R22" s="4">
+        <v>2028</v>
+      </c>
+      <c r="S22" s="4">
+        <v>2029</v>
+      </c>
+      <c r="T22" s="4">
+        <v>2030</v>
+      </c>
+      <c r="U22" s="4">
+        <v>2031</v>
+      </c>
+      <c r="V22" s="4">
+        <v>2032</v>
+      </c>
+      <c r="W22" s="4">
+        <v>2033</v>
+      </c>
+      <c r="X22" s="4">
+        <v>2034</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>2035</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>2036</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>2037</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>2038</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>2039</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="11">
+        <v>39.069785102500006</v>
+      </c>
+      <c r="C23" s="11">
+        <v>69.386334986835038</v>
+      </c>
+      <c r="D23" s="11">
+        <v>104.58892236114662</v>
+      </c>
+      <c r="E23" s="11">
+        <v>149.2582507887322</v>
+      </c>
+      <c r="F23" s="11">
+        <v>210.80074975231631</v>
+      </c>
+      <c r="G23" s="11">
+        <v>270.00548451212143</v>
+      </c>
+      <c r="H23" s="11">
+        <v>333.7213012054263</v>
+      </c>
+      <c r="I23" s="11">
+        <v>401.21733217815375</v>
+      </c>
+      <c r="J23" s="11">
+        <v>439.74978038089756</v>
+      </c>
+      <c r="K23" s="11">
+        <v>476.49025415402394</v>
+      </c>
+      <c r="L23" s="11">
+        <v>521.88745153335856</v>
+      </c>
+      <c r="M23" s="11">
+        <v>561.15863519537868</v>
+      </c>
+      <c r="N23" s="11">
+        <v>599.74987150500283</v>
+      </c>
+      <c r="O23" s="11">
+        <v>649.35131541035605</v>
+      </c>
+      <c r="P23" s="11">
+        <v>710.43637684974226</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>773.44936407133707</v>
+      </c>
+      <c r="R23" s="11">
+        <v>838.06228029402916</v>
+      </c>
+      <c r="S23" s="11">
+        <v>932.77205310473767</v>
+      </c>
+      <c r="T23" s="11">
+        <v>1042.5884629712123</v>
+      </c>
+      <c r="U23" s="11">
+        <v>1176.7324171456173</v>
+      </c>
+      <c r="V23" s="11">
+        <v>1338.0065673276117</v>
+      </c>
+      <c r="W23" s="11">
+        <v>1530.0647540573245</v>
+      </c>
+      <c r="X23" s="11">
+        <v>1723.4219281824312</v>
+      </c>
+      <c r="Y23" s="11">
+        <v>1928.1482518555356</v>
+      </c>
+      <c r="Z23" s="11">
+        <v>2156.6546184957665</v>
+      </c>
+      <c r="AA23" s="11">
+        <v>2375.5124704211753</v>
+      </c>
+      <c r="AB23" s="11">
+        <v>2636.4036199093639</v>
+      </c>
+      <c r="AC23" s="11">
+        <v>2858.6844223675712</v>
+      </c>
+      <c r="AD23" s="11">
+        <v>3112.2072054934733</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="11">
+        <v>61.947004897500001</v>
+      </c>
+      <c r="C24" s="11">
+        <v>73.502025013164968</v>
+      </c>
+      <c r="D24" s="11">
+        <v>83.299427638853388</v>
+      </c>
+      <c r="E24" s="11">
+        <v>94.630099211267805</v>
+      </c>
+      <c r="F24" s="11">
+        <v>108.08758024768369</v>
+      </c>
+      <c r="G24" s="11">
+        <v>127.64370548787866</v>
+      </c>
+      <c r="H24" s="11">
+        <v>150.50465879457374</v>
+      </c>
+      <c r="I24" s="11">
+        <v>175.95598782184624</v>
+      </c>
+      <c r="J24" s="11">
+        <v>211.32082614474592</v>
+      </c>
+      <c r="K24" s="11">
+        <v>248.25896923104676</v>
+      </c>
+      <c r="L24" s="11">
+        <v>288.77069680074953</v>
+      </c>
+      <c r="M24" s="11">
+        <v>332.93689470887301</v>
+      </c>
+      <c r="N24" s="11">
+        <v>380.45458706894163</v>
+      </c>
+      <c r="O24" s="11">
+        <v>428.0365444350046</v>
+      </c>
+      <c r="P24" s="11">
+        <v>478.22526631484374</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>530.00892412659061</v>
+      </c>
+      <c r="R24" s="11">
+        <v>583.4201143907186</v>
+      </c>
+      <c r="S24" s="11">
+        <v>639.08272751206368</v>
+      </c>
+      <c r="T24" s="11">
+        <v>697.47697030933921</v>
+      </c>
+      <c r="U24" s="11">
+        <v>758.89183321957717</v>
+      </c>
+      <c r="V24" s="11">
+        <v>823.01290287902691</v>
+      </c>
+      <c r="W24" s="11">
+        <v>890.68252068945708</v>
+      </c>
+      <c r="X24" s="11">
+        <v>960.43714463907634</v>
+      </c>
+      <c r="Y24" s="11">
+        <v>1032.0234416903018</v>
+      </c>
+      <c r="Z24" s="11">
+        <v>1105.2345406089401</v>
+      </c>
+      <c r="AA24" s="11">
+        <v>1178.3412068586376</v>
+      </c>
+      <c r="AB24" s="11">
+        <v>1250.3891670041887</v>
+      </c>
+      <c r="AC24" s="11">
+        <v>1320.3584091969738</v>
+      </c>
+      <c r="AD24" s="11">
+        <v>1387.1410874692133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="11">
+        <v>2.8266499999999999</v>
+      </c>
+      <c r="C25" s="11">
+        <v>3.5791500000000003</v>
+      </c>
+      <c r="D25" s="11">
+        <v>4.7114399999999996</v>
+      </c>
+      <c r="E25" s="11">
+        <v>4.8144399999999994</v>
+      </c>
+      <c r="F25" s="11">
+        <v>5.2094399999999998</v>
+      </c>
+      <c r="G25" s="11">
+        <v>5.6078400000000004</v>
+      </c>
+      <c r="H25" s="11">
+        <v>6.0903400000000003</v>
+      </c>
+      <c r="I25" s="11">
+        <v>6.7978096969696979</v>
+      </c>
+      <c r="J25" s="11">
+        <v>7.1471178787878795</v>
+      </c>
+      <c r="K25" s="11">
+        <v>7.1482058077127899</v>
+      </c>
+      <c r="L25" s="11">
+        <v>7.1392937366377032</v>
+      </c>
+      <c r="M25" s="11">
+        <v>7.130381665562612</v>
+      </c>
+      <c r="N25" s="11">
+        <v>7.1214695944875235</v>
+      </c>
+      <c r="O25" s="11">
+        <v>7.1628700866357571</v>
+      </c>
+      <c r="P25" s="11">
+        <v>7.0904280282053298</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>7.053985969774903</v>
+      </c>
+      <c r="R25" s="11">
+        <v>6.9815439113444766</v>
+      </c>
+      <c r="S25" s="11">
+        <v>6.8931018529140546</v>
+      </c>
+      <c r="T25" s="11">
+        <v>6.8146597944836289</v>
+      </c>
+      <c r="U25" s="11">
+        <v>6.8142177360532026</v>
+      </c>
+      <c r="V25" s="11">
+        <v>6.8137756776227807</v>
+      </c>
+      <c r="W25" s="11">
+        <v>6.8115173313135662</v>
+      </c>
+      <c r="X25" s="11">
+        <v>6.8079616365195035</v>
+      </c>
+      <c r="Y25" s="11">
+        <v>6.8143332144527129</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>6.8106320651132011</v>
+      </c>
+      <c r="AA25" s="11">
+        <v>6.806930915773683</v>
+      </c>
+      <c r="AB25" s="11">
+        <v>6.8032297664341659</v>
+      </c>
+      <c r="AC25" s="11">
+        <v>6.7937104352764663</v>
+      </c>
+      <c r="AD25" s="11">
+        <v>6.7482994374521059</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A23:AD24 B25:AD25">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:AD24 B25:AD25">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:AG7"/>
+      <selection activeCell="B14" sqref="B14:AI14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1">
+        <v>2017</v>
+      </c>
+      <c r="C1">
+        <v>2018</v>
+      </c>
+      <c r="D1">
+        <v>2019</v>
+      </c>
+      <c r="E1">
+        <v>2020</v>
+      </c>
+      <c r="F1">
+        <v>2021</v>
+      </c>
+      <c r="G1">
+        <v>2022</v>
+      </c>
+      <c r="H1">
+        <v>2023</v>
+      </c>
+      <c r="I1">
+        <v>2024</v>
+      </c>
+      <c r="J1">
+        <v>2025</v>
+      </c>
+      <c r="K1">
+        <v>2026</v>
+      </c>
+      <c r="L1">
+        <v>2027</v>
+      </c>
+      <c r="M1">
+        <v>2028</v>
+      </c>
+      <c r="N1">
+        <v>2029</v>
+      </c>
+      <c r="O1">
+        <v>2030</v>
+      </c>
+      <c r="P1">
+        <v>2031</v>
+      </c>
+      <c r="Q1">
+        <v>2032</v>
+      </c>
+      <c r="R1">
+        <v>2033</v>
+      </c>
+      <c r="S1">
+        <v>2034</v>
+      </c>
+      <c r="T1">
+        <v>2035</v>
+      </c>
+      <c r="U1">
+        <v>2036</v>
+      </c>
+      <c r="V1">
+        <v>2037</v>
+      </c>
+      <c r="W1">
+        <v>2038</v>
+      </c>
+      <c r="X1">
+        <v>2039</v>
+      </c>
+      <c r="Y1">
+        <v>2040</v>
+      </c>
+      <c r="Z1">
+        <v>2041</v>
+      </c>
+      <c r="AA1">
+        <v>2042</v>
+      </c>
+      <c r="AB1">
+        <v>2043</v>
+      </c>
+      <c r="AC1">
+        <v>2044</v>
+      </c>
+      <c r="AD1">
+        <v>2045</v>
+      </c>
+      <c r="AE1">
+        <v>2046</v>
+      </c>
+      <c r="AF1">
+        <v>2047</v>
+      </c>
+      <c r="AG1">
+        <v>2048</v>
+      </c>
+      <c r="AH1">
+        <v>2049</v>
+      </c>
+      <c r="AI1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="17">
+        <f>'IEA 2019 outlook'!B11*10^3</f>
+        <v>515000</v>
+      </c>
+      <c r="C6" s="17">
+        <f>'IEA 2019 outlook'!C11*10^3</f>
+        <v>566000</v>
+      </c>
+      <c r="D6" s="17">
+        <f>'IEA 2019 outlook'!D11*10^3</f>
+        <v>624000</v>
+      </c>
+      <c r="E6" s="17">
+        <f>'IEA 2019 outlook'!E11*10^3</f>
+        <v>688000</v>
+      </c>
+      <c r="F6" s="17">
+        <f>'IEA 2019 outlook'!F11*10^3</f>
+        <v>747000</v>
+      </c>
+      <c r="G6" s="17">
+        <f>'IEA 2019 outlook'!G11*10^3</f>
+        <v>804000</v>
+      </c>
+      <c r="H6" s="17">
+        <f>'IEA 2019 outlook'!H11*10^3</f>
+        <v>861000</v>
+      </c>
+      <c r="I6" s="17">
+        <f>'IEA 2019 outlook'!I11*10^3</f>
+        <v>921000</v>
+      </c>
+      <c r="J6" s="17">
+        <f>'IEA 2019 outlook'!J11*10^3</f>
+        <v>980000</v>
+      </c>
+      <c r="K6" s="17">
+        <f>'IEA 2019 outlook'!K11*10^3</f>
+        <v>1040000</v>
+      </c>
+      <c r="L6" s="17">
+        <f>'IEA 2019 outlook'!L11*10^3</f>
+        <v>1100000</v>
+      </c>
+      <c r="M6" s="17">
+        <f>'IEA 2019 outlook'!M11*10^3</f>
+        <v>1162000</v>
+      </c>
+      <c r="N6" s="17">
+        <f>'IEA 2019 outlook'!N11*10^3</f>
+        <v>1224000</v>
+      </c>
+      <c r="O6" s="17">
+        <f>'IEA 2019 outlook'!O11*10^3</f>
+        <v>1288000</v>
+      </c>
+      <c r="P6" s="17">
+        <f>'IEA 2019 outlook'!P11*10^3</f>
+        <v>1352000</v>
+      </c>
+      <c r="Q6" s="17">
+        <f>'IEA 2019 outlook'!Q11*10^3</f>
+        <v>1415000</v>
+      </c>
+      <c r="R6" s="17">
+        <f>'IEA 2019 outlook'!R11*10^3</f>
+        <v>1476000</v>
+      </c>
+      <c r="S6" s="17">
+        <f>'IEA 2019 outlook'!S11*10^3</f>
+        <v>1536000</v>
+      </c>
+      <c r="T6" s="17">
+        <f>'IEA 2019 outlook'!T11*10^3</f>
+        <v>1594000</v>
+      </c>
+      <c r="U6" s="17">
+        <f>'IEA 2019 outlook'!U11*10^3</f>
+        <v>1649000</v>
+      </c>
+      <c r="V6" s="17">
+        <f>'IEA 2019 outlook'!V11*10^3</f>
+        <v>1703000</v>
+      </c>
+      <c r="W6" s="17">
+        <f>'IEA 2019 outlook'!W11*10^3</f>
+        <v>1754000</v>
+      </c>
+      <c r="X6" s="17">
+        <f>'IEA 2019 outlook'!X11*10^3</f>
+        <v>1806000</v>
+      </c>
+      <c r="Y6" s="17">
+        <f>'IEA 2019 outlook'!Y11*10^3</f>
+        <v>1856000</v>
+      </c>
+      <c r="Z6" s="17">
+        <f>'IEA 2019 outlook'!Z11*10^3</f>
+        <v>1894492.3033814577</v>
+      </c>
+      <c r="AA6" s="17">
+        <f>'IEA 2019 outlook'!AA11*10^3</f>
+        <v>1932984.6067629152</v>
+      </c>
+      <c r="AB6" s="17">
+        <f>'IEA 2019 outlook'!AB11*10^3</f>
+        <v>1971476.9101443728</v>
+      </c>
+      <c r="AC6" s="17">
+        <f>'IEA 2019 outlook'!AC11*10^3</f>
+        <v>2009969.2135258301</v>
+      </c>
+      <c r="AD6" s="17">
+        <f>'IEA 2019 outlook'!AD11*10^3</f>
+        <v>2048461.5169072873</v>
+      </c>
+      <c r="AE6" s="17">
+        <f>'IEA 2019 outlook'!AE11*10^3</f>
+        <v>2107361.3807522859</v>
+      </c>
+      <c r="AF6" s="17">
+        <f>'IEA 2019 outlook'!AF11*10^3</f>
+        <v>2166261.2445972851</v>
+      </c>
+      <c r="AG6" s="17">
+        <f>'IEA 2019 outlook'!AG11*10^3</f>
+        <v>2225161.1084422837</v>
+      </c>
+      <c r="AH6" s="17">
+        <f>'IEA 2019 outlook'!AH11*10^3</f>
+        <v>2284060.9722872823</v>
+      </c>
+      <c r="AI6" s="17">
+        <f>'IEA 2019 outlook'!AI11*10^3</f>
+        <v>2342960.8361322805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="17">
+        <f>'IEA 2019 outlook'!B5*10^3</f>
+        <v>399000</v>
+      </c>
+      <c r="C7" s="17">
+        <f>'IEA 2019 outlook'!C5*10^3</f>
+        <v>495000</v>
+      </c>
+      <c r="D7" s="17">
+        <f>'IEA 2019 outlook'!D5*10^3</f>
+        <v>607000</v>
+      </c>
+      <c r="E7" s="17">
+        <f>'IEA 2019 outlook'!E5*10^3</f>
+        <v>715000</v>
+      </c>
+      <c r="F7" s="17">
+        <f>'IEA 2019 outlook'!F5*10^3</f>
+        <v>825000</v>
+      </c>
+      <c r="G7" s="17">
+        <f>'IEA 2019 outlook'!G5*10^3</f>
+        <v>943000</v>
+      </c>
+      <c r="H7" s="17">
+        <f>'IEA 2019 outlook'!H5*10^3</f>
+        <v>1070000</v>
+      </c>
+      <c r="I7" s="17">
+        <f>'IEA 2019 outlook'!I5*10^3</f>
+        <v>1202000</v>
+      </c>
+      <c r="J7" s="17">
+        <f>'IEA 2019 outlook'!J5*10^3</f>
+        <v>1309000</v>
+      </c>
+      <c r="K7" s="17">
+        <f>'IEA 2019 outlook'!K5*10^3</f>
+        <v>1415000</v>
+      </c>
+      <c r="L7" s="17">
+        <f>'IEA 2019 outlook'!L5*10^3</f>
+        <v>1522000</v>
+      </c>
+      <c r="M7" s="17">
+        <f>'IEA 2019 outlook'!M5*10^3</f>
+        <v>1631000</v>
+      </c>
+      <c r="N7" s="17">
+        <f>'IEA 2019 outlook'!N5*10^3</f>
+        <v>1746000</v>
+      </c>
+      <c r="O7" s="17">
+        <f>'IEA 2019 outlook'!O5*10^3</f>
+        <v>1866000</v>
+      </c>
+      <c r="P7" s="17">
+        <f>'IEA 2019 outlook'!P5*10^3</f>
+        <v>1985000</v>
+      </c>
+      <c r="Q7" s="17">
+        <f>'IEA 2019 outlook'!Q5*10^3</f>
+        <v>2104000</v>
+      </c>
+      <c r="R7" s="17">
+        <f>'IEA 2019 outlook'!R5*10^3</f>
+        <v>2225000</v>
+      </c>
+      <c r="S7" s="17">
+        <f>'IEA 2019 outlook'!S5*10^3</f>
+        <v>2349000</v>
+      </c>
+      <c r="T7" s="17">
+        <f>'IEA 2019 outlook'!T5*10^3</f>
+        <v>2476000</v>
+      </c>
+      <c r="U7" s="17">
+        <f>'IEA 2019 outlook'!U5*10^3</f>
+        <v>2606000</v>
+      </c>
+      <c r="V7" s="17">
+        <f>'IEA 2019 outlook'!V5*10^3</f>
+        <v>2738000</v>
+      </c>
+      <c r="W7" s="17">
+        <f>'IEA 2019 outlook'!W5*10^3</f>
+        <v>2872000</v>
+      </c>
+      <c r="X7" s="17">
+        <f>'IEA 2019 outlook'!X5*10^3</f>
+        <v>3007000</v>
+      </c>
+      <c r="Y7" s="17">
+        <f>'IEA 2019 outlook'!Y5*10^3</f>
+        <v>3142000</v>
+      </c>
+      <c r="Z7" s="17">
+        <f>'IEA 2019 outlook'!Z5*10^3</f>
+        <v>3272072.9821632286</v>
+      </c>
+      <c r="AA7" s="17">
+        <f>'IEA 2019 outlook'!AA5*10^3</f>
+        <v>3402145.9643264567</v>
+      </c>
+      <c r="AB7" s="17">
+        <f>'IEA 2019 outlook'!AB5*10^3</f>
+        <v>3532218.9464896857</v>
+      </c>
+      <c r="AC7" s="17">
+        <f>'IEA 2019 outlook'!AC5*10^3</f>
+        <v>3662291.9286529142</v>
+      </c>
+      <c r="AD7" s="17">
+        <f>'IEA 2019 outlook'!AD5*10^3</f>
+        <v>3792364.9108161419</v>
+      </c>
+      <c r="AE7" s="17">
+        <f>'IEA 2019 outlook'!AE5*10^3</f>
+        <v>3931484.2859526561</v>
+      </c>
+      <c r="AF7" s="17">
+        <f>'IEA 2019 outlook'!AF5*10^3</f>
+        <v>4070603.6610891712</v>
+      </c>
+      <c r="AG7" s="17">
+        <f>'IEA 2019 outlook'!AG5*10^3</f>
+        <v>4209723.0362256858</v>
+      </c>
+      <c r="AH7" s="17">
+        <f>'IEA 2019 outlook'!AH5*10^3</f>
+        <v>4348842.4113622</v>
+      </c>
+      <c r="AI7" s="17">
+        <f>'IEA 2019 outlook'!AI5*10^3</f>
+        <v>4487961.7864987161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B1">
-        <v>2019</v>
-      </c>
-      <c r="C1">
-        <v>2020</v>
-      </c>
-      <c r="D1">
-        <v>2021</v>
-      </c>
-      <c r="E1">
-        <v>2022</v>
-      </c>
-      <c r="F1">
-        <v>2023</v>
-      </c>
-      <c r="G1">
-        <v>2024</v>
-      </c>
-      <c r="H1">
-        <v>2025</v>
-      </c>
-      <c r="I1">
-        <v>2026</v>
-      </c>
-      <c r="J1">
-        <v>2027</v>
-      </c>
-      <c r="K1">
-        <v>2028</v>
-      </c>
-      <c r="L1">
-        <v>2029</v>
-      </c>
-      <c r="M1">
-        <v>2030</v>
-      </c>
-      <c r="N1">
-        <v>2031</v>
-      </c>
-      <c r="O1">
-        <v>2032</v>
-      </c>
-      <c r="P1">
-        <v>2033</v>
-      </c>
-      <c r="Q1">
-        <v>2034</v>
-      </c>
-      <c r="R1">
-        <v>2035</v>
-      </c>
-      <c r="S1">
-        <v>2036</v>
-      </c>
-      <c r="T1">
-        <v>2037</v>
-      </c>
-      <c r="U1">
-        <v>2038</v>
-      </c>
-      <c r="V1">
-        <v>2039</v>
-      </c>
-      <c r="W1">
-        <v>2040</v>
-      </c>
-      <c r="X1">
-        <v>2041</v>
-      </c>
-      <c r="Y1">
-        <v>2042</v>
-      </c>
-      <c r="Z1">
-        <v>2043</v>
-      </c>
-      <c r="AA1">
-        <v>2044</v>
-      </c>
-      <c r="AB1">
-        <v>2045</v>
-      </c>
-      <c r="AC1">
-        <v>2046</v>
-      </c>
-      <c r="AD1">
-        <v>2047</v>
-      </c>
-      <c r="AE1">
-        <v>2048</v>
-      </c>
-      <c r="AF1">
-        <v>2049</v>
-      </c>
-      <c r="AG1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="15">
-        <f>'Global Renewables Outlook'!B7*(1-'IEA 2017 Wind'!I12)</f>
-        <v>607804.03146737406</v>
-      </c>
-      <c r="C6" s="15">
-        <f>'Global Renewables Outlook'!C7*(1-'IEA 2017 Wind'!J12)</f>
-        <v>681371.59811876004</v>
-      </c>
-      <c r="D6" s="15">
-        <f>'Global Renewables Outlook'!D7*(1-'IEA 2017 Wind'!K12)</f>
-        <v>754938.35798369965</v>
-      </c>
-      <c r="E6" s="15">
-        <f>'Global Renewables Outlook'!E7*(1-'IEA 2017 Wind'!L12)</f>
-        <v>828504.48238323536</v>
-      </c>
-      <c r="F6" s="15">
-        <f>'Global Renewables Outlook'!F7*(1-'IEA 2017 Wind'!M12)</f>
-        <v>902070.09733831172</v>
-      </c>
-      <c r="G6" s="15">
-        <f>'Global Renewables Outlook'!G7*(1-'IEA 2017 Wind'!N12)</f>
-        <v>975635.29761384299</v>
-      </c>
-      <c r="H6" s="15">
-        <f>'Global Renewables Outlook'!H7*(1-'IEA 2017 Wind'!O12)</f>
-        <v>1049200.1558433597</v>
-      </c>
-      <c r="I6" s="15">
-        <f>'Global Renewables Outlook'!I7*(1-'IEA 2017 Wind'!P12)</f>
-        <v>1121222.8094770459</v>
-      </c>
-      <c r="J6" s="15">
-        <f>'Global Renewables Outlook'!J7*(1-'IEA 2017 Wind'!Q12)</f>
-        <v>1193207.4250556889</v>
-      </c>
-      <c r="K6" s="15">
-        <f>'Global Renewables Outlook'!K7*(1-'IEA 2017 Wind'!R12)</f>
-        <v>1265159.4382497929</v>
-      </c>
-      <c r="L6" s="15">
-        <f>'Global Renewables Outlook'!L7*(1-'IEA 2017 Wind'!S12)</f>
-        <v>1337083.296137417</v>
-      </c>
-      <c r="M6" s="15">
-        <f>'Global Renewables Outlook'!M7*(1-'IEA 2017 Wind'!T12)</f>
-        <v>1408982.6721757923</v>
-      </c>
-      <c r="N6" s="15">
-        <f>'Global Renewables Outlook'!N7*(1-'IEA 2017 Wind'!U12)</f>
-        <v>1454354.0181945674</v>
-      </c>
-      <c r="O6" s="15">
-        <f>'Global Renewables Outlook'!O7*(1-'IEA 2017 Wind'!V12)</f>
-        <v>1499746.3552090656</v>
-      </c>
-      <c r="P6" s="15">
-        <f>'Global Renewables Outlook'!P7*(1-'IEA 2017 Wind'!W12)</f>
-        <v>1545157.4640270318</v>
-      </c>
-      <c r="Q6" s="15">
-        <f>'Global Renewables Outlook'!Q7*(1-'IEA 2017 Wind'!X12)</f>
-        <v>1590585.4276282906</v>
-      </c>
-      <c r="R6" s="15">
-        <f>'Global Renewables Outlook'!R7*(1-'IEA 2017 Wind'!Y12)</f>
-        <v>1636028.58142701</v>
-      </c>
-      <c r="S6" s="15">
-        <f>'Global Renewables Outlook'!S7*(1-'IEA 2017 Wind'!Z12)</f>
-        <v>1680197.7520111771</v>
-      </c>
-      <c r="T6" s="15">
-        <f>'Global Renewables Outlook'!T7*(1-'IEA 2017 Wind'!AA12)</f>
-        <v>1724348.2566176786</v>
-      </c>
-      <c r="U6" s="15">
-        <f>'Global Renewables Outlook'!U7*(1-'IEA 2017 Wind'!AB12)</f>
-        <v>1768481.4155999315</v>
-      </c>
-      <c r="V6" s="15">
-        <f>'Global Renewables Outlook'!V7*(1-'IEA 2017 Wind'!AC12)</f>
-        <v>1812598.4276515185</v>
-      </c>
-      <c r="W6" s="15">
-        <f>'Global Renewables Outlook'!W7*(1-'IEA 2017 Wind'!AD12)</f>
-        <v>1856700.3835031393</v>
-      </c>
-      <c r="X6" s="15">
-        <f>'Global Renewables Outlook'!X7*(1-'IEA 2017 Wind'!AE12)</f>
-        <v>1899173.3917596261</v>
-      </c>
-      <c r="Y6" s="15">
-        <f>'Global Renewables Outlook'!Y7*(1-'IEA 2017 Wind'!AF12)</f>
-        <v>1941610.9600069062</v>
-      </c>
-      <c r="Z6" s="15">
-        <f>'Global Renewables Outlook'!Z7*(1-'IEA 2017 Wind'!AG12)</f>
-        <v>1984015.1641012894</v>
-      </c>
-      <c r="AA6" s="15">
-        <f>'Global Renewables Outlook'!AA7*(1-'IEA 2017 Wind'!AH12)</f>
-        <v>2026387.9208827256</v>
-      </c>
-      <c r="AB6" s="15">
-        <f>'Global Renewables Outlook'!AB7*(1-'IEA 2017 Wind'!AI12)</f>
-        <v>2068731.0031150684</v>
-      </c>
-      <c r="AC6" s="15">
-        <f>'Global Renewables Outlook'!AC7*(1-'IEA 2017 Wind'!AJ12)</f>
-        <v>2109832.2301834417</v>
-      </c>
-      <c r="AD6" s="15">
-        <f>'Global Renewables Outlook'!AD7*(1-'IEA 2017 Wind'!AK12)</f>
-        <v>2150994.4197746827</v>
-      </c>
-      <c r="AE6" s="15">
-        <f>'Global Renewables Outlook'!AE7*(1-'IEA 2017 Wind'!AL12)</f>
-        <v>2192212.7308672476</v>
-      </c>
-      <c r="AF6" s="15">
-        <f>'Global Renewables Outlook'!AF7*(1-'IEA 2017 Wind'!AM12)</f>
-        <v>2233482.8217879166</v>
-      </c>
-      <c r="AG6" s="15">
-        <f>'Global Renewables Outlook'!AG7*(1-'IEA 2017 Wind'!AN12)</f>
-        <v>2274800.7874460295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="15">
-        <f>'Global Renewables Outlook'!B6</f>
-        <v>582000</v>
-      </c>
-      <c r="C7" s="15">
-        <f>'Global Renewables Outlook'!C6</f>
-        <v>714272.72727276431</v>
-      </c>
-      <c r="D7" s="15">
-        <f>'Global Renewables Outlook'!D6</f>
-        <v>846545.45454547042</v>
-      </c>
-      <c r="E7" s="15">
-        <f>'Global Renewables Outlook'!E6</f>
-        <v>978818.18181823473</v>
-      </c>
-      <c r="F7" s="15">
-        <f>'Global Renewables Outlook'!F6</f>
-        <v>1111090.9090909408</v>
-      </c>
-      <c r="G7" s="15">
-        <f>'Global Renewables Outlook'!G6</f>
-        <v>1243363.6363636469</v>
-      </c>
-      <c r="H7" s="15">
-        <f>'Global Renewables Outlook'!H6</f>
-        <v>1375636.3636364113</v>
-      </c>
-      <c r="I7" s="15">
-        <f>'Global Renewables Outlook'!I6</f>
-        <v>1507909.0909091174</v>
-      </c>
-      <c r="J7" s="15">
-        <f>'Global Renewables Outlook'!J6</f>
-        <v>1640181.8181818235</v>
-      </c>
-      <c r="K7" s="15">
-        <f>'Global Renewables Outlook'!K6</f>
-        <v>1772454.5454545878</v>
-      </c>
-      <c r="L7" s="15">
-        <f>'Global Renewables Outlook'!L6</f>
-        <v>1904727.2727272939</v>
-      </c>
-      <c r="M7" s="15">
-        <f>'Global Renewables Outlook'!M6</f>
-        <v>2037000</v>
-      </c>
-      <c r="N7" s="15">
-        <f>'Global Renewables Outlook'!N6</f>
-        <v>2158849.9999999767</v>
-      </c>
-      <c r="O7" s="15">
-        <f>'Global Renewables Outlook'!O6</f>
-        <v>2280699.9999999823</v>
-      </c>
-      <c r="P7" s="15">
-        <f>'Global Renewables Outlook'!P6</f>
-        <v>2402549.9999999884</v>
-      </c>
-      <c r="Q7" s="15">
-        <f>'Global Renewables Outlook'!Q6</f>
-        <v>2524399.9999999944</v>
-      </c>
-      <c r="R7" s="15">
-        <f>'Global Renewables Outlook'!R6</f>
-        <v>2646250</v>
-      </c>
-      <c r="S7" s="15">
-        <f>'Global Renewables Outlook'!S6</f>
-        <v>2768099.9999999767</v>
-      </c>
-      <c r="T7" s="15">
-        <f>'Global Renewables Outlook'!T6</f>
-        <v>2889949.9999999823</v>
-      </c>
-      <c r="U7" s="15">
-        <f>'Global Renewables Outlook'!U6</f>
-        <v>3011799.9999999884</v>
-      </c>
-      <c r="V7" s="15">
-        <f>'Global Renewables Outlook'!V6</f>
-        <v>3133649.9999999944</v>
-      </c>
-      <c r="W7" s="15">
-        <f>'Global Renewables Outlook'!W6</f>
-        <v>3255500</v>
-      </c>
-      <c r="X7" s="15">
-        <f>'Global Renewables Outlook'!X6</f>
-        <v>3377349.9999999767</v>
-      </c>
-      <c r="Y7" s="15">
-        <f>'Global Renewables Outlook'!Y6</f>
-        <v>3499199.9999999823</v>
-      </c>
-      <c r="Z7" s="15">
-        <f>'Global Renewables Outlook'!Z6</f>
-        <v>3621049.9999999884</v>
-      </c>
-      <c r="AA7" s="15">
-        <f>'Global Renewables Outlook'!AA6</f>
-        <v>3742899.9999999944</v>
-      </c>
-      <c r="AB7" s="15">
-        <f>'Global Renewables Outlook'!AB6</f>
-        <v>3864750</v>
-      </c>
-      <c r="AC7" s="15">
-        <f>'Global Renewables Outlook'!AC6</f>
-        <v>3986599.9999999767</v>
-      </c>
-      <c r="AD7" s="15">
-        <f>'Global Renewables Outlook'!AD6</f>
-        <v>4108449.9999999823</v>
-      </c>
-      <c r="AE7" s="15">
-        <f>'Global Renewables Outlook'!AE6</f>
-        <v>4230299.9999999888</v>
-      </c>
-      <c r="AF7" s="15">
-        <f>'Global Renewables Outlook'!AF6</f>
-        <v>4352149.9999999944</v>
-      </c>
-      <c r="AG7" s="15">
-        <f>'Global Renewables Outlook'!AG6</f>
-        <v>4474000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A10" s="14" t="s">
-        <v>22</v>
-      </c>
       <c r="B10">
         <v>0</v>
       </c>
@@ -3630,10 +5305,16 @@
       <c r="AG10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A11" s="14" t="s">
-        <v>23</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3731,10 +5412,16 @@
       <c r="AG11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A12" s="14" t="s">
-        <v>24</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3832,10 +5519,16 @@
       <c r="AG12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A13" s="14" t="s">
-        <v>25</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3933,143 +5626,157 @@
       <c r="AG13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="15">
-        <f>'Global Renewables Outlook'!B7*'IEA 2017 Wind'!I12</f>
-        <v>16195.968532625964</v>
-      </c>
-      <c r="C14" s="15">
-        <f>'Global Renewables Outlook'!C7*'IEA 2017 Wind'!J12</f>
-        <v>18173.856426681279</v>
-      </c>
-      <c r="D14" s="15">
-        <f>'Global Renewables Outlook'!D7*'IEA 2017 Wind'!K12</f>
-        <v>20152.551107212112</v>
-      </c>
-      <c r="E14" s="15">
-        <f>'Global Renewables Outlook'!E7*'IEA 2017 Wind'!L12</f>
-        <v>22131.881253117648</v>
-      </c>
-      <c r="F14" s="15">
-        <f>'Global Renewables Outlook'!F7*'IEA 2017 Wind'!M12</f>
-        <v>24111.720843511761</v>
-      </c>
-      <c r="G14" s="15">
-        <f>'Global Renewables Outlook'!G7*'IEA 2017 Wind'!N12</f>
-        <v>26091.975113421791</v>
-      </c>
-      <c r="H14" s="15">
-        <f>'Global Renewables Outlook'!H7*'IEA 2017 Wind'!O12</f>
-        <v>28072.571429375646</v>
-      </c>
-      <c r="I14" s="15">
-        <f>'Global Renewables Outlook'!I7*'IEA 2017 Wind'!P12</f>
-        <v>31595.372341130736</v>
-      </c>
-      <c r="J14" s="15">
-        <f>'Global Renewables Outlook'!J7*'IEA 2017 Wind'!Q12</f>
-        <v>35156.211307928854</v>
-      </c>
-      <c r="K14" s="15">
-        <f>'Global Renewables Outlook'!K7*'IEA 2017 Wind'!R12</f>
-        <v>38749.652659295331</v>
-      </c>
-      <c r="L14" s="15">
-        <f>'Global Renewables Outlook'!L7*'IEA 2017 Wind'!S12</f>
-        <v>42371.249317112568</v>
-      </c>
-      <c r="M14" s="15">
-        <f>'Global Renewables Outlook'!M7*'IEA 2017 Wind'!T12</f>
-        <v>46017.327824207787</v>
-      </c>
-      <c r="N14" s="15">
-        <f>'Global Renewables Outlook'!N7*'IEA 2017 Wind'!U12</f>
-        <v>49595.981805444135</v>
-      </c>
-      <c r="O14" s="15">
-        <f>'Global Renewables Outlook'!O7*'IEA 2017 Wind'!V12</f>
-        <v>53153.644790943217</v>
-      </c>
-      <c r="P14" s="15">
-        <f>'Global Renewables Outlook'!P7*'IEA 2017 Wind'!W12</f>
-        <v>56692.535972973987</v>
-      </c>
-      <c r="Q14" s="15">
-        <f>'Global Renewables Outlook'!Q7*'IEA 2017 Wind'!X12</f>
-        <v>60214.572371712304</v>
-      </c>
-      <c r="R14" s="15">
-        <f>'Global Renewables Outlook'!R7*'IEA 2017 Wind'!Y12</f>
-        <v>63721.418572989911</v>
-      </c>
-      <c r="S14" s="15">
-        <f>'Global Renewables Outlook'!S7*'IEA 2017 Wind'!Z12</f>
-        <v>68502.247988834672</v>
-      </c>
-      <c r="T14" s="15">
-        <f>'Global Renewables Outlook'!T7*'IEA 2017 Wind'!AA12</f>
-        <v>73301.743382330329</v>
-      </c>
-      <c r="U14" s="15">
-        <f>'Global Renewables Outlook'!U7*'IEA 2017 Wind'!AB12</f>
-        <v>78118.584400074353</v>
-      </c>
-      <c r="V14" s="15">
-        <f>'Global Renewables Outlook'!V7*'IEA 2017 Wind'!AC12</f>
-        <v>82951.572348484304</v>
-      </c>
-      <c r="W14" s="15">
-        <f>'Global Renewables Outlook'!W7*'IEA 2017 Wind'!AD12</f>
-        <v>87799.616496860792</v>
-      </c>
-      <c r="X14" s="15">
-        <f>'Global Renewables Outlook'!X7*'IEA 2017 Wind'!AE12</f>
-        <v>94276.608240385627</v>
-      </c>
-      <c r="Y14" s="15">
-        <f>'Global Renewables Outlook'!Y7*'IEA 2017 Wind'!AF12</f>
-        <v>100789.03999310276</v>
-      </c>
-      <c r="Z14" s="15">
-        <f>'Global Renewables Outlook'!Z7*'IEA 2017 Wind'!AG12</f>
-        <v>107334.83589871647</v>
-      </c>
-      <c r="AA14" s="15">
-        <f>'Global Renewables Outlook'!AA7*'IEA 2017 Wind'!AH12</f>
-        <v>113912.07911727707</v>
-      </c>
-      <c r="AB14" s="15">
-        <f>'Global Renewables Outlook'!AB7*'IEA 2017 Wind'!AI12</f>
-        <v>120518.99688493161</v>
-      </c>
-      <c r="AC14" s="15">
-        <f>'Global Renewables Outlook'!AC7*'IEA 2017 Wind'!AJ12</f>
-        <v>128367.76981657001</v>
-      </c>
-      <c r="AD14" s="15">
-        <f>'Global Renewables Outlook'!AD7*'IEA 2017 Wind'!AK12</f>
-        <v>136155.58022532647</v>
-      </c>
-      <c r="AE14" s="15">
-        <f>'Global Renewables Outlook'!AE7*'IEA 2017 Wind'!AL12</f>
-        <v>143887.26913275797</v>
-      </c>
-      <c r="AF14" s="15">
-        <f>'Global Renewables Outlook'!AF7*'IEA 2017 Wind'!AM12</f>
-        <v>151567.17821208638</v>
-      </c>
-      <c r="AG14" s="15">
-        <f>'Global Renewables Outlook'!AG7*'IEA 2017 Wind'!AN12</f>
-        <v>159199.21255397078</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A15" s="11" t="s">
-        <v>28</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="17">
+        <f>'IEA 2017 Wind'!G10*10^3</f>
+        <v>13143.338992959158</v>
+      </c>
+      <c r="C14" s="17">
+        <f>'IEA 2017 Wind'!H10*10^3</f>
+        <v>14603.391990612212</v>
+      </c>
+      <c r="D14" s="17">
+        <f>'IEA 2017 Wind'!I10*10^3</f>
+        <v>16063.444988265264</v>
+      </c>
+      <c r="E14" s="17">
+        <f>'IEA 2017 Wind'!J10*10^3</f>
+        <v>17523.497985918319</v>
+      </c>
+      <c r="F14" s="17">
+        <f>'IEA 2017 Wind'!K10*10^3</f>
+        <v>18983.550983571375</v>
+      </c>
+      <c r="G14" s="17">
+        <f>'IEA 2017 Wind'!L10*10^3</f>
+        <v>20443.603981224427</v>
+      </c>
+      <c r="H14" s="17">
+        <f>'IEA 2017 Wind'!M10*10^3</f>
+        <v>21903.656978877483</v>
+      </c>
+      <c r="I14" s="17">
+        <f>'IEA 2017 Wind'!N10*10^3</f>
+        <v>23363.709976530536</v>
+      </c>
+      <c r="J14" s="17">
+        <f>'IEA 2017 Wind'!O10*10^3</f>
+        <v>24823.762974183584</v>
+      </c>
+      <c r="K14" s="17">
+        <f>'IEA 2017 Wind'!P10*10^3</f>
+        <v>27558.971215653626</v>
+      </c>
+      <c r="L14" s="17">
+        <f>'IEA 2017 Wind'!Q10*10^3</f>
+        <v>30294.179457123671</v>
+      </c>
+      <c r="M14" s="17">
+        <f>'IEA 2017 Wind'!R10*10^3</f>
+        <v>33029.387698593717</v>
+      </c>
+      <c r="N14" s="17">
+        <f>'IEA 2017 Wind'!S10*10^3</f>
+        <v>35764.595940063758</v>
+      </c>
+      <c r="O14" s="17">
+        <f>'IEA 2017 Wind'!T10*10^3</f>
+        <v>38499.804181533807</v>
+      </c>
+      <c r="P14" s="17">
+        <f>'IEA 2017 Wind'!U10*10^3</f>
+        <v>41725.219802228174</v>
+      </c>
+      <c r="Q14" s="17">
+        <f>'IEA 2017 Wind'!V10*10^3</f>
+        <v>44950.635422922547</v>
+      </c>
+      <c r="R14" s="17">
+        <f>'IEA 2017 Wind'!W10*10^3</f>
+        <v>48176.051043616913</v>
+      </c>
+      <c r="S14" s="17">
+        <f>'IEA 2017 Wind'!X10*10^3</f>
+        <v>51401.466664311287</v>
+      </c>
+      <c r="T14" s="17">
+        <f>'IEA 2017 Wind'!Y10*10^3</f>
+        <v>54626.882285005646</v>
+      </c>
+      <c r="U14" s="17">
+        <f>'IEA 2017 Wind'!Z10*10^3</f>
+        <v>58529.875166205908</v>
+      </c>
+      <c r="V14" s="17">
+        <f>'IEA 2017 Wind'!AA10*10^3</f>
+        <v>62432.868047406162</v>
+      </c>
+      <c r="W14" s="17">
+        <f>'IEA 2017 Wind'!AB10*10^3</f>
+        <v>66335.860928606402</v>
+      </c>
+      <c r="X14" s="17">
+        <f>'IEA 2017 Wind'!AC10*10^3</f>
+        <v>70238.853809806649</v>
+      </c>
+      <c r="Y14" s="17">
+        <f>'IEA 2017 Wind'!AD10*10^3</f>
+        <v>74141.846691006926</v>
+      </c>
+      <c r="Z14" s="17">
+        <f>'IEA 2017 Wind'!AE10*10^3</f>
+        <v>79266.960143990786</v>
+      </c>
+      <c r="AA14" s="17">
+        <f>'IEA 2017 Wind'!AF10*10^3</f>
+        <v>84392.07359697466</v>
+      </c>
+      <c r="AB14" s="17">
+        <f>'IEA 2017 Wind'!AG10*10^3</f>
+        <v>89517.18704995852</v>
+      </c>
+      <c r="AC14" s="17">
+        <f>'IEA 2017 Wind'!AH10*10^3</f>
+        <v>94642.300502942395</v>
+      </c>
+      <c r="AD14" s="17">
+        <f>'IEA 2017 Wind'!AI10*10^3</f>
+        <v>99767.41395592624</v>
+      </c>
+      <c r="AE14" s="17">
+        <f>'IEA 2017 Wind'!AJ10*10^3</f>
+        <v>106929.33781320453</v>
+      </c>
+      <c r="AF14" s="17">
+        <f>'IEA 2017 Wind'!AK10*10^3</f>
+        <v>114091.26167048281</v>
+      </c>
+      <c r="AG14" s="17">
+        <f>'IEA 2017 Wind'!AL10*10^3</f>
+        <v>121253.18552776109</v>
+      </c>
+      <c r="AH14" s="17">
+        <f>'IEA 2017 Wind'!AM10*10^3</f>
+        <v>128415.10938503935</v>
+      </c>
+      <c r="AI14" s="17">
+        <f>'IEA 2017 Wind'!AN10*10^3</f>
+        <v>135577.03324231764</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4167,10 +5874,16 @@
       <c r="AG15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A16" s="11" t="s">
-        <v>29</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4268,10 +5981,16 @@
       <c r="AG16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A17" s="11" t="s">
-        <v>30</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4367,6 +6086,12 @@
         <v>0</v>
       </c>
       <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
         <v>0</v>
       </c>
     </row>
